--- a/media/financial_output/mayb/output_maybank_statement2.xlsx
+++ b/media/financial_output/mayb/output_maybank_statement2.xlsx
@@ -165,11 +165,11 @@
 _x000C_</t>
   </si>
   <si>
-    <t>MUHAMMAD AZ7UBAIB BIN AZEMAN
+    <t>MUHAMMAD AZZUBAIR BIN AZEMAN
 _x000C_</t>
   </si>
   <si>
-    <t>ant ee 30/06/20
+    <t>nt ae 30/06/20
 _x000C_</t>
   </si>
   <si>
